--- a/src/main/resources/测试_同页单体.xlsx
+++ b/src/main/resources/测试_同页单体.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>客户编号</t>
   </si>
@@ -22,6 +22,9 @@
     <t>客户姓名</t>
   </si>
   <si>
+    <t>银行ID</t>
+  </si>
+  <si>
     <t>客户年龄</t>
   </si>
   <si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>银行账号</t>
+  </si>
+  <si>
+    <t>客户爱好</t>
   </si>
   <si>
     <t>朱明</t>
@@ -69,15 +75,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,25 +94,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +110,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -127,22 +126,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,30 +193,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -188,51 +225,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,19 +247,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,163 +391,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,32 +494,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +528,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,174 +573,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,17 +1098,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="2" max="2" width="9.78571428571429" style="1"/>
     <col min="3" max="3" width="17.5714285714286" style="2"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6607142857143" customWidth="1"/>
     <col min="6" max="6" width="16.4285714285714" style="3"/>
     <col min="7" max="7" width="19.7857142857143" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.7232142857143" style="5" customWidth="1"/>
@@ -1044,92 +1117,152 @@
     <col min="10" max="10" width="18.3035714285714" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
+        <v>444</v>
+      </c>
+      <c r="D2" s="2">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>9274</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2">
+        <v>9274</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
+        <v>555</v>
+      </c>
+      <c r="D3" s="2">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>1322</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>666</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>5341</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="I4" s="1"/>
+      <c r="J4">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="2">
+        <v>777</v>
+      </c>
+      <c r="F5">
         <v>5341</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/src/main/resources/测试_同页单体.xlsx
+++ b/src/main/resources/测试_同页单体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17060"/>
+    <workbookView windowWidth="20860" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1098,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="E13:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1117,233 +1117,260 @@
     <col min="10" max="10" width="18.3035714285714" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="13" spans="5:14">
+      <c r="E13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="J13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="K13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="L13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="14" spans="5:14">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="G14" s="2">
         <v>444</v>
       </c>
-      <c r="D2" s="2">
+      <c r="H14" s="2">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="J14">
         <v>9274</v>
       </c>
-      <c r="G2">
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2">
+      <c r="M14" s="1"/>
+      <c r="N14">
         <v>9274</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="15" spans="5:14">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="G15" s="2">
         <v>555</v>
       </c>
-      <c r="D3" s="2">
+      <c r="H15" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="J15">
         <v>1322</v>
       </c>
-      <c r="G3">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3">
+      <c r="M15" s="1"/>
+      <c r="N15">
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="16" spans="5:14">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="G16" s="2">
         <v>666</v>
       </c>
-      <c r="D4" s="2">
+      <c r="H16" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="J16">
         <v>5341</v>
       </c>
-      <c r="G4">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4">
+      <c r="M16" s="1"/>
+      <c r="N16">
         <v>5341</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="2">
+    <row r="17" spans="6:14">
+      <c r="F17" s="1"/>
+      <c r="G17" s="2">
         <v>777</v>
       </c>
-      <c r="F5">
+      <c r="H17" s="1"/>
+      <c r="I17"/>
+      <c r="J17">
         <v>5341</v>
       </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+    <row r="18" spans="5:14">
+      <c r="E18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="19" spans="5:14">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="F19" s="3">
         <v>200</v>
       </c>
-      <c r="C7" s="4">
+      <c r="G19" s="4">
         <v>44602.4305555556</v>
       </c>
-      <c r="D7" s="5">
+      <c r="H19" s="5">
         <v>44602.4305555556</v>
       </c>
-      <c r="E7" s="6">
+      <c r="I19" s="6">
         <v>44602.4305555556</v>
       </c>
-      <c r="F7" s="7">
+      <c r="J19" s="7">
         <v>44602.4305555556</v>
       </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="20" spans="5:14">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="F20" s="3">
         <v>250</v>
       </c>
-      <c r="C8" s="4">
+      <c r="G20" s="4">
         <v>44905.5138888889</v>
       </c>
-      <c r="D8" s="5">
+      <c r="H20" s="5">
         <v>44905.5138888889</v>
       </c>
-      <c r="E8" s="6">
+      <c r="I20" s="6">
         <v>44905.5138888889</v>
       </c>
-      <c r="F8" s="7">
+      <c r="J20" s="7">
         <v>44604.5972222222</v>
       </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="21" spans="5:14">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="F21" s="3">
         <v>30</v>
       </c>
-      <c r="C9" s="4">
+      <c r="G21" s="4">
         <v>44631.4722222222</v>
       </c>
-      <c r="D9" s="5">
+      <c r="H21" s="5">
         <v>44631.4722222222</v>
       </c>
-      <c r="E9" s="6">
+      <c r="I21" s="6">
         <v>44631.4722222222</v>
       </c>
-      <c r="F9" s="7">
+      <c r="J21" s="7">
         <v>44631.4722222222</v>
       </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="22" spans="5:14">
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="F22" s="3">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
+      <c r="G22" s="4">
         <v>44661.5138888889</v>
       </c>
-      <c r="D10" s="5">
+      <c r="H22" s="5">
         <v>44661.5138888889</v>
       </c>
-      <c r="E10" s="6">
+      <c r="I22" s="6">
         <v>44661.5138888889</v>
       </c>
-      <c r="F10" s="7">
+      <c r="J22" s="7">
         <v>44661.5138888889</v>
       </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
